--- a/Web/Template/上传模板表.xlsx
+++ b/Web/Template/上传模板表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>防伪卡号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -92,6 +92,46 @@
   </si>
   <si>
     <t>加工厂保修期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>JJ2011</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000008</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15112390</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉星口腔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>程大夫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张嘉怡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚冠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3年</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -167,7 +207,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -187,6 +227,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -533,8 +576,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.875" style="6" customWidth="1"/>
-    <col min="2" max="3" width="9" style="6"/>
+    <col min="1" max="1" width="9.25" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9" style="6"/>
     <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.875" customWidth="1"/>
     <col min="16" max="16" width="6.25" customWidth="1"/>
@@ -598,24 +642,60 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="A2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="7">
+        <v>42721</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>321</v>
+      </c>
+      <c r="M2" s="3">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3">
+        <v>43</v>
+      </c>
+      <c r="O2" s="3">
+        <v>56</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>10098</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
       <c r="I4" s="1"/>

--- a/Web/Template/上传模板表.xlsx
+++ b/Web/Template/上传模板表.xlsx
@@ -87,10 +87,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>材料批号</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>加工厂保修期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -132,6 +128,10 @@
   </si>
   <si>
     <t>3年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +572,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -635,42 +637,42 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="3">
         <v>10</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="7">
         <v>42721</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K2" s="3">
         <v>1</v>
@@ -688,13 +690,13 @@
         <v>56</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q2" s="3">
         <v>10098</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
